--- a/ecdc-csv/data/ecdc_csv_total.xlsx
+++ b/ecdc-csv/data/ecdc_csv_total.xlsx
@@ -22519,7 +22519,7 @@
         <v>19</v>
       </c>
       <c r="L88">
-        <v>2423</v>
+        <v>2799</v>
       </c>
       <c r="M88">
         <v>5888</v>
@@ -45538,7 +45538,7 @@
         <v>0</v>
       </c>
       <c r="L88">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M88">
         <v>34</v>

--- a/ecdc-csv/data/ecdc_csv_total.xlsx
+++ b/ecdc-csv/data/ecdc_csv_total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="287">
   <si>
     <t>Date</t>
   </si>
@@ -874,6 +874,9 @@
   <si>
     <t>2020-03-28</t>
   </si>
+  <si>
+    <t>2020-03-29</t>
+  </si>
 </sst>
 </file>
 
@@ -1230,7 +1233,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GO90"/>
+  <dimension ref="A1:GO91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -24242,6 +24245,596 @@
         <v>5</v>
       </c>
     </row>
+    <row r="91" spans="1:197">
+      <c r="A91" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91">
+        <v>106</v>
+      </c>
+      <c r="C91">
+        <v>197</v>
+      </c>
+      <c r="D91">
+        <v>409</v>
+      </c>
+      <c r="E91">
+        <v>308</v>
+      </c>
+      <c r="F91">
+        <v>4</v>
+      </c>
+      <c r="G91">
+        <v>2</v>
+      </c>
+      <c r="H91">
+        <v>7</v>
+      </c>
+      <c r="I91">
+        <v>745</v>
+      </c>
+      <c r="J91">
+        <v>424</v>
+      </c>
+      <c r="K91">
+        <v>28</v>
+      </c>
+      <c r="L91">
+        <v>3809</v>
+      </c>
+      <c r="M91">
+        <v>8291</v>
+      </c>
+      <c r="N91">
+        <v>182</v>
+      </c>
+      <c r="O91">
+        <v>11</v>
+      </c>
+      <c r="P91">
+        <v>473</v>
+      </c>
+      <c r="Q91">
+        <v>48</v>
+      </c>
+      <c r="R91">
+        <v>26</v>
+      </c>
+      <c r="S91">
+        <v>94</v>
+      </c>
+      <c r="T91">
+        <v>9134</v>
+      </c>
+      <c r="U91">
+        <v>2</v>
+      </c>
+      <c r="V91">
+        <v>6</v>
+      </c>
+      <c r="W91">
+        <v>22</v>
+      </c>
+      <c r="X91">
+        <v>4</v>
+      </c>
+      <c r="Y91">
+        <v>81</v>
+      </c>
+      <c r="Z91">
+        <v>257</v>
+      </c>
+      <c r="AA91">
+        <v>3904</v>
+      </c>
+      <c r="AB91">
+        <v>2</v>
+      </c>
+      <c r="AC91">
+        <v>120</v>
+      </c>
+      <c r="AD91">
+        <v>331</v>
+      </c>
+      <c r="AE91">
+        <v>180</v>
+      </c>
+      <c r="AF91">
+        <v>103</v>
+      </c>
+      <c r="AG91">
+        <v>99</v>
+      </c>
+      <c r="AH91">
+        <v>5386</v>
+      </c>
+      <c r="AI91">
+        <v>6</v>
+      </c>
+      <c r="AK91">
+        <v>8</v>
+      </c>
+      <c r="AL91">
+        <v>6</v>
+      </c>
+      <c r="AM91">
+        <v>5</v>
+      </c>
+      <c r="AN91">
+        <v>1909</v>
+      </c>
+      <c r="AO91">
+        <v>82342</v>
+      </c>
+      <c r="AP91">
+        <v>608</v>
+      </c>
+      <c r="AQ91">
+        <v>19</v>
+      </c>
+      <c r="AR91">
+        <v>295</v>
+      </c>
+      <c r="AS91">
+        <v>140</v>
+      </c>
+      <c r="AT91">
+        <v>657</v>
+      </c>
+      <c r="AU91">
+        <v>119</v>
+      </c>
+      <c r="AV91">
+        <v>8</v>
+      </c>
+      <c r="AW91">
+        <v>179</v>
+      </c>
+      <c r="AX91">
+        <v>2663</v>
+      </c>
+      <c r="AY91">
+        <v>58</v>
+      </c>
+      <c r="AZ91">
+        <v>2201</v>
+      </c>
+      <c r="BA91">
+        <v>15</v>
+      </c>
+      <c r="BB91">
+        <v>11</v>
+      </c>
+      <c r="BC91">
+        <v>719</v>
+      </c>
+      <c r="BD91">
+        <v>1835</v>
+      </c>
+      <c r="BE91">
+        <v>536</v>
+      </c>
+      <c r="BF91">
+        <v>19</v>
+      </c>
+      <c r="BG91">
+        <v>13</v>
+      </c>
+      <c r="BH91">
+        <v>6</v>
+      </c>
+      <c r="BI91">
+        <v>640</v>
+      </c>
+      <c r="BJ91">
+        <v>9</v>
+      </c>
+      <c r="BK91">
+        <v>16</v>
+      </c>
+      <c r="BL91">
+        <v>155</v>
+      </c>
+      <c r="BM91">
+        <v>5</v>
+      </c>
+      <c r="BN91">
+        <v>1218</v>
+      </c>
+      <c r="BO91">
+        <v>37575</v>
+      </c>
+      <c r="BP91">
+        <v>34</v>
+      </c>
+      <c r="BQ91">
+        <v>7</v>
+      </c>
+      <c r="BR91">
+        <v>3</v>
+      </c>
+      <c r="BS91">
+        <v>85</v>
+      </c>
+      <c r="BT91">
+        <v>52547</v>
+      </c>
+      <c r="BU91">
+        <v>141</v>
+      </c>
+      <c r="BV91">
+        <v>56</v>
+      </c>
+      <c r="BW91">
+        <v>1061</v>
+      </c>
+      <c r="BX91">
+        <v>10</v>
+      </c>
+      <c r="BY91">
+        <v>9</v>
+      </c>
+      <c r="BZ91">
+        <v>55</v>
+      </c>
+      <c r="CA91">
+        <v>34</v>
+      </c>
+      <c r="CB91">
+        <v>39</v>
+      </c>
+      <c r="CC91">
+        <v>8</v>
+      </c>
+      <c r="CD91">
+        <v>2</v>
+      </c>
+      <c r="CE91">
+        <v>8</v>
+      </c>
+      <c r="CF91">
+        <v>8</v>
+      </c>
+      <c r="CG91">
+        <v>6</v>
+      </c>
+      <c r="CH91">
+        <v>110</v>
+      </c>
+      <c r="CI91">
+        <v>408</v>
+      </c>
+      <c r="CJ91">
+        <v>963</v>
+      </c>
+      <c r="CK91">
+        <v>979</v>
+      </c>
+      <c r="CL91">
+        <v>1155</v>
+      </c>
+      <c r="CM91">
+        <v>35408</v>
+      </c>
+      <c r="CN91">
+        <v>506</v>
+      </c>
+      <c r="CO91">
+        <v>2415</v>
+      </c>
+      <c r="CP91">
+        <v>32</v>
+      </c>
+      <c r="CQ91">
+        <v>3619</v>
+      </c>
+      <c r="CR91">
+        <v>92472</v>
+      </c>
+      <c r="CS91">
+        <v>32</v>
+      </c>
+      <c r="CT91">
+        <v>1693</v>
+      </c>
+      <c r="CU91">
+        <v>61</v>
+      </c>
+      <c r="CV91">
+        <v>235</v>
+      </c>
+      <c r="CW91">
+        <v>229</v>
+      </c>
+      <c r="CX91">
+        <v>38</v>
+      </c>
+      <c r="CY91">
+        <v>86</v>
+      </c>
+      <c r="CZ91">
+        <v>235</v>
+      </c>
+      <c r="DA91">
+        <v>84</v>
+      </c>
+      <c r="DB91">
+        <v>6</v>
+      </c>
+      <c r="DC91">
+        <v>305</v>
+      </c>
+      <c r="DD91">
+        <v>412</v>
+      </c>
+      <c r="DE91">
+        <v>3</v>
+      </c>
+      <c r="DF91">
+        <v>1</v>
+      </c>
+      <c r="DG91">
+        <v>61</v>
+      </c>
+      <c r="DH91">
+        <v>394</v>
+      </c>
+      <c r="DI91">
+        <v>1831</v>
+      </c>
+      <c r="DJ91">
+        <v>28</v>
+      </c>
+      <c r="DK91">
+        <v>2320</v>
+      </c>
+      <c r="DL91">
+        <v>16</v>
+      </c>
+      <c r="DM91">
+        <v>9</v>
+      </c>
+      <c r="DN91">
+        <v>139</v>
+      </c>
+      <c r="DO91">
+        <v>5</v>
+      </c>
+      <c r="DP91">
+        <v>102</v>
+      </c>
+      <c r="DQ91">
+        <v>848</v>
+      </c>
+      <c r="DR91">
+        <v>231</v>
+      </c>
+      <c r="DS91">
+        <v>43</v>
+      </c>
+      <c r="DT91">
+        <v>12</v>
+      </c>
+      <c r="DU91">
+        <v>84</v>
+      </c>
+      <c r="DV91">
+        <v>5</v>
+      </c>
+      <c r="DW91">
+        <v>358</v>
+      </c>
+      <c r="DX91">
+        <v>8</v>
+      </c>
+      <c r="DY91">
+        <v>8</v>
+      </c>
+      <c r="DZ91">
+        <v>8</v>
+      </c>
+      <c r="EA91">
+        <v>5</v>
+      </c>
+      <c r="EB91">
+        <v>9762</v>
+      </c>
+      <c r="EC91">
+        <v>15</v>
+      </c>
+      <c r="ED91">
+        <v>476</v>
+      </c>
+      <c r="EE91">
+        <v>3</v>
+      </c>
+      <c r="EF91">
+        <v>10</v>
+      </c>
+      <c r="EG91">
+        <v>97</v>
+      </c>
+      <c r="EH91">
+        <v>241</v>
+      </c>
+      <c r="EI91">
+        <v>3845</v>
+      </c>
+      <c r="EJ91">
+        <v>152</v>
+      </c>
+      <c r="EK91">
+        <v>1408</v>
+      </c>
+      <c r="EL91">
+        <v>97</v>
+      </c>
+      <c r="EM91">
+        <v>901</v>
+      </c>
+      <c r="EN91">
+        <v>1</v>
+      </c>
+      <c r="EO91">
+        <v>59</v>
+      </c>
+      <c r="EP91">
+        <v>671</v>
+      </c>
+      <c r="EQ91">
+        <v>1075</v>
+      </c>
+      <c r="ER91">
+        <v>1638</v>
+      </c>
+      <c r="ES91">
+        <v>5170</v>
+      </c>
+      <c r="ET91">
+        <v>100</v>
+      </c>
+      <c r="EU91">
+        <v>590</v>
+      </c>
+      <c r="EV91">
+        <v>1452</v>
+      </c>
+      <c r="EW91">
+        <v>1264</v>
+      </c>
+      <c r="EX91">
+        <v>60</v>
+      </c>
+      <c r="EY91">
+        <v>2</v>
+      </c>
+      <c r="EZ91">
+        <v>4</v>
+      </c>
+      <c r="FA91">
+        <v>1</v>
+      </c>
+      <c r="FB91">
+        <v>224</v>
+      </c>
+      <c r="FC91">
+        <v>1203</v>
+      </c>
+      <c r="FD91">
+        <v>130</v>
+      </c>
+      <c r="FE91">
+        <v>659</v>
+      </c>
+      <c r="FF91">
+        <v>7</v>
+      </c>
+      <c r="FG91">
+        <v>803</v>
+      </c>
+      <c r="FH91">
+        <v>3</v>
+      </c>
+      <c r="FI91">
+        <v>295</v>
+      </c>
+      <c r="FJ91">
+        <v>691</v>
+      </c>
+      <c r="FK91">
+        <v>3</v>
+      </c>
+      <c r="FL91">
+        <v>1187</v>
+      </c>
+      <c r="FM91">
+        <v>9583</v>
+      </c>
+      <c r="FN91">
+        <v>72248</v>
+      </c>
+      <c r="FO91">
+        <v>115</v>
+      </c>
+      <c r="FP91">
+        <v>5</v>
+      </c>
+      <c r="FQ91">
+        <v>8</v>
+      </c>
+      <c r="FR91">
+        <v>3447</v>
+      </c>
+      <c r="FS91">
+        <v>13152</v>
+      </c>
+      <c r="FT91">
+        <v>5</v>
+      </c>
+      <c r="FU91">
+        <v>283</v>
+      </c>
+      <c r="FV91">
+        <v>1245</v>
+      </c>
+      <c r="FW91">
+        <v>1</v>
+      </c>
+      <c r="FX91">
+        <v>28</v>
+      </c>
+      <c r="FY91">
+        <v>74</v>
+      </c>
+      <c r="FZ91">
+        <v>227</v>
+      </c>
+      <c r="GA91">
+        <v>7402</v>
+      </c>
+      <c r="GB91">
+        <v>5</v>
+      </c>
+      <c r="GC91">
+        <v>30</v>
+      </c>
+      <c r="GD91">
+        <v>311</v>
+      </c>
+      <c r="GE91">
+        <v>468</v>
+      </c>
+      <c r="GF91">
+        <v>17089</v>
+      </c>
+      <c r="GG91">
+        <v>13</v>
+      </c>
+      <c r="GH91">
+        <v>22</v>
+      </c>
+      <c r="GI91">
+        <v>124665</v>
+      </c>
+      <c r="GJ91">
+        <v>304</v>
+      </c>
+      <c r="GK91">
+        <v>133</v>
+      </c>
+      <c r="GL91">
+        <v>119</v>
+      </c>
+      <c r="GM91">
+        <v>223</v>
+      </c>
+      <c r="GN91">
+        <v>28</v>
+      </c>
+      <c r="GO91">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24249,7 +24842,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GO90"/>
+  <dimension ref="A1:GO91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -47261,6 +47854,596 @@
         <v>1</v>
       </c>
     </row>
+    <row r="91" spans="1:197">
+      <c r="A91" t="s">
+        <v>286</v>
+      </c>
+      <c r="B91">
+        <v>3</v>
+      </c>
+      <c r="C91">
+        <v>10</v>
+      </c>
+      <c r="D91">
+        <v>26</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91">
+        <v>0</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
+        <v>19</v>
+      </c>
+      <c r="J91">
+        <v>3</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>14</v>
+      </c>
+      <c r="M91">
+        <v>68</v>
+      </c>
+      <c r="N91">
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+      <c r="P91">
+        <v>4</v>
+      </c>
+      <c r="Q91">
+        <v>5</v>
+      </c>
+      <c r="R91">
+        <v>0</v>
+      </c>
+      <c r="S91">
+        <v>0</v>
+      </c>
+      <c r="T91">
+        <v>353</v>
+      </c>
+      <c r="U91">
+        <v>0</v>
+      </c>
+      <c r="V91">
+        <v>0</v>
+      </c>
+      <c r="W91">
+        <v>0</v>
+      </c>
+      <c r="X91">
+        <v>0</v>
+      </c>
+      <c r="Y91">
+        <v>0</v>
+      </c>
+      <c r="Z91">
+        <v>5</v>
+      </c>
+      <c r="AA91">
+        <v>114</v>
+      </c>
+      <c r="AB91">
+        <v>0</v>
+      </c>
+      <c r="AC91">
+        <v>1</v>
+      </c>
+      <c r="AD91">
+        <v>7</v>
+      </c>
+      <c r="AE91">
+        <v>9</v>
+      </c>
+      <c r="AF91">
+        <v>0</v>
+      </c>
+      <c r="AG91">
+        <v>2</v>
+      </c>
+      <c r="AH91">
+        <v>60</v>
+      </c>
+      <c r="AI91">
+        <v>1</v>
+      </c>
+      <c r="AK91">
+        <v>1</v>
+      </c>
+      <c r="AL91">
+        <v>0</v>
+      </c>
+      <c r="AM91">
+        <v>0</v>
+      </c>
+      <c r="AN91">
+        <v>6</v>
+      </c>
+      <c r="AO91">
+        <v>3306</v>
+      </c>
+      <c r="AP91">
+        <v>6</v>
+      </c>
+      <c r="AQ91">
+        <v>0</v>
+      </c>
+      <c r="AR91">
+        <v>2</v>
+      </c>
+      <c r="AS91">
+        <v>0</v>
+      </c>
+      <c r="AT91">
+        <v>5</v>
+      </c>
+      <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>1</v>
+      </c>
+      <c r="AW91">
+        <v>5</v>
+      </c>
+      <c r="AX91">
+        <v>11</v>
+      </c>
+      <c r="AY91">
+        <v>6</v>
+      </c>
+      <c r="AZ91">
+        <v>65</v>
+      </c>
+      <c r="BA91">
+        <v>0</v>
+      </c>
+      <c r="BB91">
+        <v>0</v>
+      </c>
+      <c r="BC91">
+        <v>28</v>
+      </c>
+      <c r="BD91">
+        <v>48</v>
+      </c>
+      <c r="BE91">
+        <v>30</v>
+      </c>
+      <c r="BF91">
+        <v>0</v>
+      </c>
+      <c r="BG91">
+        <v>0</v>
+      </c>
+      <c r="BH91">
+        <v>0</v>
+      </c>
+      <c r="BI91">
+        <v>1</v>
+      </c>
+      <c r="BJ91">
+        <v>0</v>
+      </c>
+      <c r="BK91">
+        <v>0</v>
+      </c>
+      <c r="BL91">
+        <v>0</v>
+      </c>
+      <c r="BM91">
+        <v>0</v>
+      </c>
+      <c r="BN91">
+        <v>9</v>
+      </c>
+      <c r="BO91">
+        <v>2314</v>
+      </c>
+      <c r="BP91">
+        <v>0</v>
+      </c>
+      <c r="BQ91">
+        <v>1</v>
+      </c>
+      <c r="BR91">
+        <v>1</v>
+      </c>
+      <c r="BS91">
+        <v>0</v>
+      </c>
+      <c r="BT91">
+        <v>389</v>
+      </c>
+      <c r="BU91">
+        <v>5</v>
+      </c>
+      <c r="BV91">
+        <v>0</v>
+      </c>
+      <c r="BW91">
+        <v>32</v>
+      </c>
+      <c r="BX91">
+        <v>0</v>
+      </c>
+      <c r="BY91">
+        <v>0</v>
+      </c>
+      <c r="BZ91">
+        <v>1</v>
+      </c>
+      <c r="CA91">
+        <v>1</v>
+      </c>
+      <c r="CB91">
+        <v>0</v>
+      </c>
+      <c r="CC91">
+        <v>0</v>
+      </c>
+      <c r="CD91">
+        <v>0</v>
+      </c>
+      <c r="CE91">
+        <v>1</v>
+      </c>
+      <c r="CF91">
+        <v>0</v>
+      </c>
+      <c r="CG91">
+        <v>0</v>
+      </c>
+      <c r="CH91">
+        <v>2</v>
+      </c>
+      <c r="CI91">
+        <v>13</v>
+      </c>
+      <c r="CJ91">
+        <v>2</v>
+      </c>
+      <c r="CK91">
+        <v>25</v>
+      </c>
+      <c r="CL91">
+        <v>102</v>
+      </c>
+      <c r="CM91">
+        <v>2517</v>
+      </c>
+      <c r="CN91">
+        <v>42</v>
+      </c>
+      <c r="CO91">
+        <v>36</v>
+      </c>
+      <c r="CP91">
+        <v>0</v>
+      </c>
+      <c r="CQ91">
+        <v>12</v>
+      </c>
+      <c r="CR91">
+        <v>10023</v>
+      </c>
+      <c r="CS91">
+        <v>1</v>
+      </c>
+      <c r="CT91">
+        <v>52</v>
+      </c>
+      <c r="CU91">
+        <v>1</v>
+      </c>
+      <c r="CV91">
+        <v>1</v>
+      </c>
+      <c r="CW91">
+        <v>0</v>
+      </c>
+      <c r="CX91">
+        <v>1</v>
+      </c>
+      <c r="CY91">
+        <v>1</v>
+      </c>
+      <c r="CZ91">
+        <v>0</v>
+      </c>
+      <c r="DA91">
+        <v>0</v>
+      </c>
+      <c r="DB91">
+        <v>0</v>
+      </c>
+      <c r="DC91">
+        <v>0</v>
+      </c>
+      <c r="DD91">
+        <v>8</v>
+      </c>
+      <c r="DE91">
+        <v>0</v>
+      </c>
+      <c r="DF91">
+        <v>0</v>
+      </c>
+      <c r="DG91">
+        <v>0</v>
+      </c>
+      <c r="DH91">
+        <v>7</v>
+      </c>
+      <c r="DI91">
+        <v>18</v>
+      </c>
+      <c r="DJ91">
+        <v>0</v>
+      </c>
+      <c r="DK91">
+        <v>27</v>
+      </c>
+      <c r="DL91">
+        <v>0</v>
+      </c>
+      <c r="DM91">
+        <v>0</v>
+      </c>
+      <c r="DN91">
+        <v>0</v>
+      </c>
+      <c r="DO91">
+        <v>0</v>
+      </c>
+      <c r="DP91">
+        <v>2</v>
+      </c>
+      <c r="DQ91">
+        <v>16</v>
+      </c>
+      <c r="DR91">
+        <v>2</v>
+      </c>
+      <c r="DS91">
+        <v>0</v>
+      </c>
+      <c r="DT91">
+        <v>0</v>
+      </c>
+      <c r="DU91">
+        <v>1</v>
+      </c>
+      <c r="DV91">
+        <v>0</v>
+      </c>
+      <c r="DW91">
+        <v>23</v>
+      </c>
+      <c r="DX91">
+        <v>0</v>
+      </c>
+      <c r="DY91">
+        <v>0</v>
+      </c>
+      <c r="DZ91">
+        <v>0</v>
+      </c>
+      <c r="EA91">
+        <v>0</v>
+      </c>
+      <c r="EB91">
+        <v>639</v>
+      </c>
+      <c r="EC91">
+        <v>0</v>
+      </c>
+      <c r="ED91">
+        <v>1</v>
+      </c>
+      <c r="EE91">
+        <v>1</v>
+      </c>
+      <c r="EF91">
+        <v>1</v>
+      </c>
+      <c r="EG91">
+        <v>1</v>
+      </c>
+      <c r="EH91">
+        <v>4</v>
+      </c>
+      <c r="EI91">
+        <v>20</v>
+      </c>
+      <c r="EJ91">
+        <v>0</v>
+      </c>
+      <c r="EK91">
+        <v>11</v>
+      </c>
+      <c r="EL91">
+        <v>1</v>
+      </c>
+      <c r="EM91">
+        <v>17</v>
+      </c>
+      <c r="EN91">
+        <v>0</v>
+      </c>
+      <c r="EO91">
+        <v>3</v>
+      </c>
+      <c r="EP91">
+        <v>16</v>
+      </c>
+      <c r="EQ91">
+        <v>68</v>
+      </c>
+      <c r="ER91">
+        <v>18</v>
+      </c>
+      <c r="ES91">
+        <v>100</v>
+      </c>
+      <c r="ET91">
+        <v>3</v>
+      </c>
+      <c r="EU91">
+        <v>1</v>
+      </c>
+      <c r="EV91">
+        <v>29</v>
+      </c>
+      <c r="EW91">
+        <v>5</v>
+      </c>
+      <c r="EX91">
+        <v>0</v>
+      </c>
+      <c r="EY91">
+        <v>0</v>
+      </c>
+      <c r="EZ91">
+        <v>0</v>
+      </c>
+      <c r="FA91">
+        <v>0</v>
+      </c>
+      <c r="FB91">
+        <v>22</v>
+      </c>
+      <c r="FC91">
+        <v>4</v>
+      </c>
+      <c r="FD91">
+        <v>0</v>
+      </c>
+      <c r="FE91">
+        <v>10</v>
+      </c>
+      <c r="FF91">
+        <v>0</v>
+      </c>
+      <c r="FG91">
+        <v>3</v>
+      </c>
+      <c r="FH91">
+        <v>0</v>
+      </c>
+      <c r="FI91">
+        <v>0</v>
+      </c>
+      <c r="FJ91">
+        <v>9</v>
+      </c>
+      <c r="FK91">
+        <v>0</v>
+      </c>
+      <c r="FL91">
+        <v>2</v>
+      </c>
+      <c r="FM91">
+        <v>152</v>
+      </c>
+      <c r="FN91">
+        <v>5690</v>
+      </c>
+      <c r="FO91">
+        <v>1</v>
+      </c>
+      <c r="FP91">
+        <v>1</v>
+      </c>
+      <c r="FQ91">
+        <v>0</v>
+      </c>
+      <c r="FR91">
+        <v>102</v>
+      </c>
+      <c r="FS91">
+        <v>235</v>
+      </c>
+      <c r="FT91">
+        <v>0</v>
+      </c>
+      <c r="FU91">
+        <v>2</v>
+      </c>
+      <c r="FV91">
+        <v>6</v>
+      </c>
+      <c r="FW91">
+        <v>0</v>
+      </c>
+      <c r="FX91">
+        <v>1</v>
+      </c>
+      <c r="FY91">
+        <v>2</v>
+      </c>
+      <c r="FZ91">
+        <v>6</v>
+      </c>
+      <c r="GA91">
+        <v>108</v>
+      </c>
+      <c r="GB91">
+        <v>0</v>
+      </c>
+      <c r="GC91">
+        <v>0</v>
+      </c>
+      <c r="GD91">
+        <v>8</v>
+      </c>
+      <c r="GE91">
+        <v>2</v>
+      </c>
+      <c r="GF91">
+        <v>1019</v>
+      </c>
+      <c r="GG91">
+        <v>1</v>
+      </c>
+      <c r="GH91">
+        <v>0</v>
+      </c>
+      <c r="GI91">
+        <v>2191</v>
+      </c>
+      <c r="GJ91">
+        <v>0</v>
+      </c>
+      <c r="GK91">
+        <v>1</v>
+      </c>
+      <c r="GL91">
+        <v>1</v>
+      </c>
+      <c r="GM91">
+        <v>0</v>
+      </c>
+      <c r="GN91">
+        <v>0</v>
+      </c>
+      <c r="GO91">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/ecdc-csv/data/ecdc_csv_total.xlsx
+++ b/ecdc-csv/data/ecdc_csv_total.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="288">
   <si>
     <t>Date</t>
   </si>
@@ -158,7 +158,7 @@
     <t>Cuba</t>
   </si>
   <si>
-    <t>Curaçao</t>
+    <t>Curacao</t>
   </si>
   <si>
     <t>Cyprus</t>
@@ -877,6 +877,9 @@
   <si>
     <t>2020-03-29</t>
   </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
 </sst>
 </file>
 
@@ -1233,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GO91"/>
+  <dimension ref="A1:GO92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -24835,6 +24838,596 @@
         <v>7</v>
       </c>
     </row>
+    <row r="92" spans="1:197">
+      <c r="A92" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92">
+        <v>114</v>
+      </c>
+      <c r="C92">
+        <v>212</v>
+      </c>
+      <c r="D92">
+        <v>454</v>
+      </c>
+      <c r="E92">
+        <v>334</v>
+      </c>
+      <c r="F92">
+        <v>7</v>
+      </c>
+      <c r="G92">
+        <v>2</v>
+      </c>
+      <c r="H92">
+        <v>7</v>
+      </c>
+      <c r="I92">
+        <v>820</v>
+      </c>
+      <c r="J92">
+        <v>424</v>
+      </c>
+      <c r="K92">
+        <v>50</v>
+      </c>
+      <c r="L92">
+        <v>4093</v>
+      </c>
+      <c r="M92">
+        <v>8813</v>
+      </c>
+      <c r="N92">
+        <v>209</v>
+      </c>
+      <c r="O92">
+        <v>14</v>
+      </c>
+      <c r="P92">
+        <v>500</v>
+      </c>
+      <c r="Q92">
+        <v>49</v>
+      </c>
+      <c r="R92">
+        <v>33</v>
+      </c>
+      <c r="S92">
+        <v>94</v>
+      </c>
+      <c r="T92">
+        <v>10836</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <v>6</v>
+      </c>
+      <c r="W92">
+        <v>22</v>
+      </c>
+      <c r="X92">
+        <v>4</v>
+      </c>
+      <c r="Y92">
+        <v>96</v>
+      </c>
+      <c r="Z92">
+        <v>323</v>
+      </c>
+      <c r="AA92">
+        <v>4256</v>
+      </c>
+      <c r="AB92">
+        <v>2</v>
+      </c>
+      <c r="AC92">
+        <v>126</v>
+      </c>
+      <c r="AD92">
+        <v>346</v>
+      </c>
+      <c r="AE92">
+        <v>180</v>
+      </c>
+      <c r="AF92">
+        <v>107</v>
+      </c>
+      <c r="AG92">
+        <v>99</v>
+      </c>
+      <c r="AH92">
+        <v>6255</v>
+      </c>
+      <c r="AI92">
+        <v>6</v>
+      </c>
+      <c r="AK92">
+        <v>8</v>
+      </c>
+      <c r="AL92">
+        <v>6</v>
+      </c>
+      <c r="AM92">
+        <v>5</v>
+      </c>
+      <c r="AN92">
+        <v>2139</v>
+      </c>
+      <c r="AO92">
+        <v>82463</v>
+      </c>
+      <c r="AP92">
+        <v>702</v>
+      </c>
+      <c r="AQ92">
+        <v>19</v>
+      </c>
+      <c r="AR92">
+        <v>314</v>
+      </c>
+      <c r="AS92">
+        <v>165</v>
+      </c>
+      <c r="AT92">
+        <v>713</v>
+      </c>
+      <c r="AU92">
+        <v>139</v>
+      </c>
+      <c r="AV92">
+        <v>9</v>
+      </c>
+      <c r="AW92">
+        <v>214</v>
+      </c>
+      <c r="AX92">
+        <v>2829</v>
+      </c>
+      <c r="AY92">
+        <v>81</v>
+      </c>
+      <c r="AZ92">
+        <v>2395</v>
+      </c>
+      <c r="BA92">
+        <v>19</v>
+      </c>
+      <c r="BB92">
+        <v>11</v>
+      </c>
+      <c r="BC92">
+        <v>859</v>
+      </c>
+      <c r="BD92">
+        <v>1890</v>
+      </c>
+      <c r="BE92">
+        <v>576</v>
+      </c>
+      <c r="BF92">
+        <v>30</v>
+      </c>
+      <c r="BG92">
+        <v>14</v>
+      </c>
+      <c r="BH92">
+        <v>12</v>
+      </c>
+      <c r="BI92">
+        <v>679</v>
+      </c>
+      <c r="BJ92">
+        <v>9</v>
+      </c>
+      <c r="BK92">
+        <v>16</v>
+      </c>
+      <c r="BL92">
+        <v>159</v>
+      </c>
+      <c r="BM92">
+        <v>5</v>
+      </c>
+      <c r="BN92">
+        <v>1218</v>
+      </c>
+      <c r="BO92">
+        <v>40174</v>
+      </c>
+      <c r="BP92">
+        <v>35</v>
+      </c>
+      <c r="BQ92">
+        <v>7</v>
+      </c>
+      <c r="BR92">
+        <v>3</v>
+      </c>
+      <c r="BS92">
+        <v>90</v>
+      </c>
+      <c r="BT92">
+        <v>57298</v>
+      </c>
+      <c r="BU92">
+        <v>152</v>
+      </c>
+      <c r="BV92">
+        <v>65</v>
+      </c>
+      <c r="BW92">
+        <v>1156</v>
+      </c>
+      <c r="BX92">
+        <v>10</v>
+      </c>
+      <c r="BY92">
+        <v>9</v>
+      </c>
+      <c r="BZ92">
+        <v>56</v>
+      </c>
+      <c r="CA92">
+        <v>36</v>
+      </c>
+      <c r="CB92">
+        <v>45</v>
+      </c>
+      <c r="CC92">
+        <v>8</v>
+      </c>
+      <c r="CD92">
+        <v>2</v>
+      </c>
+      <c r="CE92">
+        <v>8</v>
+      </c>
+      <c r="CF92">
+        <v>15</v>
+      </c>
+      <c r="CG92">
+        <v>6</v>
+      </c>
+      <c r="CH92">
+        <v>139</v>
+      </c>
+      <c r="CI92">
+        <v>447</v>
+      </c>
+      <c r="CJ92">
+        <v>1020</v>
+      </c>
+      <c r="CK92">
+        <v>1071</v>
+      </c>
+      <c r="CL92">
+        <v>1285</v>
+      </c>
+      <c r="CM92">
+        <v>38309</v>
+      </c>
+      <c r="CN92">
+        <v>547</v>
+      </c>
+      <c r="CO92">
+        <v>2615</v>
+      </c>
+      <c r="CP92">
+        <v>42</v>
+      </c>
+      <c r="CQ92">
+        <v>4247</v>
+      </c>
+      <c r="CR92">
+        <v>97689</v>
+      </c>
+      <c r="CS92">
+        <v>34</v>
+      </c>
+      <c r="CT92">
+        <v>1866</v>
+      </c>
+      <c r="CU92">
+        <v>63</v>
+      </c>
+      <c r="CV92">
+        <v>259</v>
+      </c>
+      <c r="CW92">
+        <v>284</v>
+      </c>
+      <c r="CX92">
+        <v>42</v>
+      </c>
+      <c r="CY92">
+        <v>86</v>
+      </c>
+      <c r="CZ92">
+        <v>255</v>
+      </c>
+      <c r="DA92">
+        <v>84</v>
+      </c>
+      <c r="DB92">
+        <v>6</v>
+      </c>
+      <c r="DC92">
+        <v>376</v>
+      </c>
+      <c r="DD92">
+        <v>438</v>
+      </c>
+      <c r="DE92">
+        <v>3</v>
+      </c>
+      <c r="DF92">
+        <v>8</v>
+      </c>
+      <c r="DG92">
+        <v>62</v>
+      </c>
+      <c r="DH92">
+        <v>484</v>
+      </c>
+      <c r="DI92">
+        <v>1950</v>
+      </c>
+      <c r="DJ92">
+        <v>37</v>
+      </c>
+      <c r="DK92">
+        <v>2470</v>
+      </c>
+      <c r="DL92">
+        <v>17</v>
+      </c>
+      <c r="DM92">
+        <v>18</v>
+      </c>
+      <c r="DN92">
+        <v>151</v>
+      </c>
+      <c r="DO92">
+        <v>5</v>
+      </c>
+      <c r="DP92">
+        <v>110</v>
+      </c>
+      <c r="DQ92">
+        <v>993</v>
+      </c>
+      <c r="DR92">
+        <v>263</v>
+      </c>
+      <c r="DS92">
+        <v>46</v>
+      </c>
+      <c r="DT92">
+        <v>12</v>
+      </c>
+      <c r="DU92">
+        <v>85</v>
+      </c>
+      <c r="DV92">
+        <v>5</v>
+      </c>
+      <c r="DW92">
+        <v>479</v>
+      </c>
+      <c r="DX92">
+        <v>8</v>
+      </c>
+      <c r="DY92">
+        <v>8</v>
+      </c>
+      <c r="DZ92">
+        <v>11</v>
+      </c>
+      <c r="EA92">
+        <v>5</v>
+      </c>
+      <c r="EB92">
+        <v>10866</v>
+      </c>
+      <c r="EC92">
+        <v>15</v>
+      </c>
+      <c r="ED92">
+        <v>552</v>
+      </c>
+      <c r="EE92">
+        <v>3</v>
+      </c>
+      <c r="EF92">
+        <v>10</v>
+      </c>
+      <c r="EG92">
+        <v>97</v>
+      </c>
+      <c r="EH92">
+        <v>259</v>
+      </c>
+      <c r="EI92">
+        <v>4102</v>
+      </c>
+      <c r="EJ92">
+        <v>167</v>
+      </c>
+      <c r="EK92">
+        <v>1526</v>
+      </c>
+      <c r="EL92">
+        <v>106</v>
+      </c>
+      <c r="EM92">
+        <v>989</v>
+      </c>
+      <c r="EN92">
+        <v>1</v>
+      </c>
+      <c r="EO92">
+        <v>64</v>
+      </c>
+      <c r="EP92">
+        <v>852</v>
+      </c>
+      <c r="EQ92">
+        <v>1418</v>
+      </c>
+      <c r="ER92">
+        <v>1862</v>
+      </c>
+      <c r="ES92">
+        <v>5962</v>
+      </c>
+      <c r="ET92">
+        <v>127</v>
+      </c>
+      <c r="EU92">
+        <v>634</v>
+      </c>
+      <c r="EV92">
+        <v>1760</v>
+      </c>
+      <c r="EW92">
+        <v>1534</v>
+      </c>
+      <c r="EX92">
+        <v>70</v>
+      </c>
+      <c r="EY92">
+        <v>7</v>
+      </c>
+      <c r="EZ92">
+        <v>9</v>
+      </c>
+      <c r="FA92">
+        <v>1</v>
+      </c>
+      <c r="FB92">
+        <v>229</v>
+      </c>
+      <c r="FC92">
+        <v>1229</v>
+      </c>
+      <c r="FD92">
+        <v>142</v>
+      </c>
+      <c r="FE92">
+        <v>741</v>
+      </c>
+      <c r="FF92">
+        <v>8</v>
+      </c>
+      <c r="FG92">
+        <v>844</v>
+      </c>
+      <c r="FH92">
+        <v>3</v>
+      </c>
+      <c r="FI92">
+        <v>336</v>
+      </c>
+      <c r="FJ92">
+        <v>730</v>
+      </c>
+      <c r="FK92">
+        <v>3</v>
+      </c>
+      <c r="FL92">
+        <v>1280</v>
+      </c>
+      <c r="FM92">
+        <v>9661</v>
+      </c>
+      <c r="FN92">
+        <v>78797</v>
+      </c>
+      <c r="FO92">
+        <v>120</v>
+      </c>
+      <c r="FP92">
+        <v>5</v>
+      </c>
+      <c r="FQ92">
+        <v>8</v>
+      </c>
+      <c r="FR92">
+        <v>3700</v>
+      </c>
+      <c r="FS92">
+        <v>14274</v>
+      </c>
+      <c r="FT92">
+        <v>9</v>
+      </c>
+      <c r="FU92">
+        <v>306</v>
+      </c>
+      <c r="FV92">
+        <v>1388</v>
+      </c>
+      <c r="FW92">
+        <v>1</v>
+      </c>
+      <c r="FX92">
+        <v>30</v>
+      </c>
+      <c r="FY92">
+        <v>78</v>
+      </c>
+      <c r="FZ92">
+        <v>278</v>
+      </c>
+      <c r="GA92">
+        <v>9217</v>
+      </c>
+      <c r="GB92">
+        <v>5</v>
+      </c>
+      <c r="GC92">
+        <v>33</v>
+      </c>
+      <c r="GD92">
+        <v>418</v>
+      </c>
+      <c r="GE92">
+        <v>468</v>
+      </c>
+      <c r="GF92">
+        <v>19522</v>
+      </c>
+      <c r="GG92">
+        <v>14</v>
+      </c>
+      <c r="GH92">
+        <v>30</v>
+      </c>
+      <c r="GI92">
+        <v>143025</v>
+      </c>
+      <c r="GJ92">
+        <v>309</v>
+      </c>
+      <c r="GK92">
+        <v>145</v>
+      </c>
+      <c r="GL92">
+        <v>119</v>
+      </c>
+      <c r="GM92">
+        <v>228</v>
+      </c>
+      <c r="GN92">
+        <v>29</v>
+      </c>
+      <c r="GO92">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -24842,7 +25435,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:GO91"/>
+  <dimension ref="A1:GO92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -48444,6 +49037,596 @@
         <v>1</v>
       </c>
     </row>
+    <row r="92" spans="1:197">
+      <c r="A92" t="s">
+        <v>287</v>
+      </c>
+      <c r="B92">
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <v>10</v>
+      </c>
+      <c r="D92">
+        <v>29</v>
+      </c>
+      <c r="E92">
+        <v>6</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92">
+        <v>0</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+      <c r="I92">
+        <v>20</v>
+      </c>
+      <c r="J92">
+        <v>3</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>16</v>
+      </c>
+      <c r="M92">
+        <v>86</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <v>0</v>
+      </c>
+      <c r="P92">
+        <v>4</v>
+      </c>
+      <c r="Q92">
+        <v>5</v>
+      </c>
+      <c r="R92">
+        <v>0</v>
+      </c>
+      <c r="S92">
+        <v>0</v>
+      </c>
+      <c r="T92">
+        <v>431</v>
+      </c>
+      <c r="U92">
+        <v>0</v>
+      </c>
+      <c r="V92">
+        <v>0</v>
+      </c>
+      <c r="W92">
+        <v>0</v>
+      </c>
+      <c r="X92">
+        <v>0</v>
+      </c>
+      <c r="Y92">
+        <v>3</v>
+      </c>
+      <c r="Z92">
+        <v>6</v>
+      </c>
+      <c r="AA92">
+        <v>136</v>
+      </c>
+      <c r="AB92">
+        <v>0</v>
+      </c>
+      <c r="AC92">
+        <v>1</v>
+      </c>
+      <c r="AD92">
+        <v>8</v>
+      </c>
+      <c r="AE92">
+        <v>9</v>
+      </c>
+      <c r="AF92">
+        <v>0</v>
+      </c>
+      <c r="AG92">
+        <v>2</v>
+      </c>
+      <c r="AH92">
+        <v>61</v>
+      </c>
+      <c r="AI92">
+        <v>1</v>
+      </c>
+      <c r="AK92">
+        <v>1</v>
+      </c>
+      <c r="AL92">
+        <v>0</v>
+      </c>
+      <c r="AM92">
+        <v>0</v>
+      </c>
+      <c r="AN92">
+        <v>7</v>
+      </c>
+      <c r="AO92">
+        <v>3311</v>
+      </c>
+      <c r="AP92">
+        <v>10</v>
+      </c>
+      <c r="AQ92">
+        <v>0</v>
+      </c>
+      <c r="AR92">
+        <v>2</v>
+      </c>
+      <c r="AS92">
+        <v>1</v>
+      </c>
+      <c r="AT92">
+        <v>6</v>
+      </c>
+      <c r="AU92">
+        <v>3</v>
+      </c>
+      <c r="AV92">
+        <v>1</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>16</v>
+      </c>
+      <c r="AY92">
+        <v>8</v>
+      </c>
+      <c r="AZ92">
+        <v>72</v>
+      </c>
+      <c r="BA92">
+        <v>0</v>
+      </c>
+      <c r="BB92">
+        <v>0</v>
+      </c>
+      <c r="BC92">
+        <v>39</v>
+      </c>
+      <c r="BD92">
+        <v>58</v>
+      </c>
+      <c r="BE92">
+        <v>36</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>3</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>11</v>
+      </c>
+      <c r="BO92">
+        <v>2606</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+      <c r="BQ92">
+        <v>1</v>
+      </c>
+      <c r="BR92">
+        <v>1</v>
+      </c>
+      <c r="BS92">
+        <v>0</v>
+      </c>
+      <c r="BT92">
+        <v>455</v>
+      </c>
+      <c r="BU92">
+        <v>5</v>
+      </c>
+      <c r="BV92">
+        <v>0</v>
+      </c>
+      <c r="BW92">
+        <v>38</v>
+      </c>
+      <c r="BX92">
+        <v>0</v>
+      </c>
+      <c r="BY92">
+        <v>0</v>
+      </c>
+      <c r="BZ92">
+        <v>1</v>
+      </c>
+      <c r="CA92">
+        <v>1</v>
+      </c>
+      <c r="CB92">
+        <v>0</v>
+      </c>
+      <c r="CC92">
+        <v>0</v>
+      </c>
+      <c r="CD92">
+        <v>0</v>
+      </c>
+      <c r="CE92">
+        <v>1</v>
+      </c>
+      <c r="CF92">
+        <v>0</v>
+      </c>
+      <c r="CG92">
+        <v>0</v>
+      </c>
+      <c r="CH92">
+        <v>3</v>
+      </c>
+      <c r="CI92">
+        <v>15</v>
+      </c>
+      <c r="CJ92">
+        <v>2</v>
+      </c>
+      <c r="CK92">
+        <v>29</v>
+      </c>
+      <c r="CL92">
+        <v>114</v>
+      </c>
+      <c r="CM92">
+        <v>2640</v>
+      </c>
+      <c r="CN92">
+        <v>42</v>
+      </c>
+      <c r="CO92">
+        <v>46</v>
+      </c>
+      <c r="CP92">
+        <v>0</v>
+      </c>
+      <c r="CQ92">
+        <v>15</v>
+      </c>
+      <c r="CR92">
+        <v>10781</v>
+      </c>
+      <c r="CS92">
+        <v>1</v>
+      </c>
+      <c r="CT92">
+        <v>54</v>
+      </c>
+      <c r="CU92">
+        <v>2</v>
+      </c>
+      <c r="CV92">
+        <v>1</v>
+      </c>
+      <c r="CW92">
+        <v>1</v>
+      </c>
+      <c r="CX92">
+        <v>1</v>
+      </c>
+      <c r="CY92">
+        <v>1</v>
+      </c>
+      <c r="CZ92">
+        <v>0</v>
+      </c>
+      <c r="DA92">
+        <v>0</v>
+      </c>
+      <c r="DB92">
+        <v>0</v>
+      </c>
+      <c r="DC92">
+        <v>0</v>
+      </c>
+      <c r="DD92">
+        <v>10</v>
+      </c>
+      <c r="DE92">
+        <v>0</v>
+      </c>
+      <c r="DF92">
+        <v>0</v>
+      </c>
+      <c r="DG92">
+        <v>0</v>
+      </c>
+      <c r="DH92">
+        <v>7</v>
+      </c>
+      <c r="DI92">
+        <v>21</v>
+      </c>
+      <c r="DJ92">
+        <v>0</v>
+      </c>
+      <c r="DK92">
+        <v>34</v>
+      </c>
+      <c r="DL92">
+        <v>0</v>
+      </c>
+      <c r="DM92">
+        <v>0</v>
+      </c>
+      <c r="DN92">
+        <v>0</v>
+      </c>
+      <c r="DO92">
+        <v>0</v>
+      </c>
+      <c r="DP92">
+        <v>3</v>
+      </c>
+      <c r="DQ92">
+        <v>20</v>
+      </c>
+      <c r="DR92">
+        <v>2</v>
+      </c>
+      <c r="DS92">
+        <v>0</v>
+      </c>
+      <c r="DT92">
+        <v>0</v>
+      </c>
+      <c r="DU92">
+        <v>1</v>
+      </c>
+      <c r="DV92">
+        <v>0</v>
+      </c>
+      <c r="DW92">
+        <v>26</v>
+      </c>
+      <c r="DX92">
+        <v>0</v>
+      </c>
+      <c r="DY92">
+        <v>0</v>
+      </c>
+      <c r="DZ92">
+        <v>0</v>
+      </c>
+      <c r="EA92">
+        <v>0</v>
+      </c>
+      <c r="EB92">
+        <v>771</v>
+      </c>
+      <c r="EC92">
+        <v>0</v>
+      </c>
+      <c r="ED92">
+        <v>1</v>
+      </c>
+      <c r="EE92">
+        <v>1</v>
+      </c>
+      <c r="EF92">
+        <v>1</v>
+      </c>
+      <c r="EG92">
+        <v>1</v>
+      </c>
+      <c r="EH92">
+        <v>6</v>
+      </c>
+      <c r="EI92">
+        <v>22</v>
+      </c>
+      <c r="EJ92">
+        <v>0</v>
+      </c>
+      <c r="EK92">
+        <v>13</v>
+      </c>
+      <c r="EL92">
+        <v>1</v>
+      </c>
+      <c r="EM92">
+        <v>24</v>
+      </c>
+      <c r="EN92">
+        <v>0</v>
+      </c>
+      <c r="EO92">
+        <v>3</v>
+      </c>
+      <c r="EP92">
+        <v>18</v>
+      </c>
+      <c r="EQ92">
+        <v>71</v>
+      </c>
+      <c r="ER92">
+        <v>22</v>
+      </c>
+      <c r="ES92">
+        <v>119</v>
+      </c>
+      <c r="ET92">
+        <v>5</v>
+      </c>
+      <c r="EU92">
+        <v>1</v>
+      </c>
+      <c r="EV92">
+        <v>40</v>
+      </c>
+      <c r="EW92">
+        <v>8</v>
+      </c>
+      <c r="EX92">
+        <v>0</v>
+      </c>
+      <c r="EY92">
+        <v>0</v>
+      </c>
+      <c r="EZ92">
+        <v>0</v>
+      </c>
+      <c r="FA92">
+        <v>0</v>
+      </c>
+      <c r="FB92">
+        <v>24</v>
+      </c>
+      <c r="FC92">
+        <v>8</v>
+      </c>
+      <c r="FD92">
+        <v>0</v>
+      </c>
+      <c r="FE92">
+        <v>13</v>
+      </c>
+      <c r="FF92">
+        <v>0</v>
+      </c>
+      <c r="FG92">
+        <v>3</v>
+      </c>
+      <c r="FH92">
+        <v>0</v>
+      </c>
+      <c r="FI92">
+        <v>0</v>
+      </c>
+      <c r="FJ92">
+        <v>11</v>
+      </c>
+      <c r="FK92">
+        <v>0</v>
+      </c>
+      <c r="FL92">
+        <v>2</v>
+      </c>
+      <c r="FM92">
+        <v>158</v>
+      </c>
+      <c r="FN92">
+        <v>6528</v>
+      </c>
+      <c r="FO92">
+        <v>1</v>
+      </c>
+      <c r="FP92">
+        <v>1</v>
+      </c>
+      <c r="FQ92">
+        <v>0</v>
+      </c>
+      <c r="FR92">
+        <v>110</v>
+      </c>
+      <c r="FS92">
+        <v>257</v>
+      </c>
+      <c r="FT92">
+        <v>1</v>
+      </c>
+      <c r="FU92">
+        <v>5</v>
+      </c>
+      <c r="FV92">
+        <v>7</v>
+      </c>
+      <c r="FW92">
+        <v>0</v>
+      </c>
+      <c r="FX92">
+        <v>1</v>
+      </c>
+      <c r="FY92">
+        <v>3</v>
+      </c>
+      <c r="FZ92">
+        <v>8</v>
+      </c>
+      <c r="GA92">
+        <v>131</v>
+      </c>
+      <c r="GB92">
+        <v>0</v>
+      </c>
+      <c r="GC92">
+        <v>0</v>
+      </c>
+      <c r="GD92">
+        <v>9</v>
+      </c>
+      <c r="GE92">
+        <v>2</v>
+      </c>
+      <c r="GF92">
+        <v>1228</v>
+      </c>
+      <c r="GG92">
+        <v>1</v>
+      </c>
+      <c r="GH92">
+        <v>0</v>
+      </c>
+      <c r="GI92">
+        <v>2509</v>
+      </c>
+      <c r="GJ92">
+        <v>1</v>
+      </c>
+      <c r="GK92">
+        <v>1</v>
+      </c>
+      <c r="GL92">
+        <v>1</v>
+      </c>
+      <c r="GM92">
+        <v>0</v>
+      </c>
+      <c r="GN92">
+        <v>0</v>
+      </c>
+      <c r="GO92">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
